--- a/medicine/Enfance/Éditions_Talents_Hauts/Éditions_Talents_Hauts.xlsx
+++ b/medicine/Enfance/Éditions_Talents_Hauts/Éditions_Talents_Hauts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Talents_Hauts</t>
+          <t>Éditions_Talents_Hauts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Talents Hauts est une maison d’édition indépendante[1] créée en 2005. Connue pour son engagement contre les discriminations[2], elle publie « des livres qui bousculent les idées reçues. »[3] La maison publie environ 25 titres par an pour l’essentiel à destination de la jeunesse.
+Talents Hauts est une maison d’édition indépendante créée en 2005. Connue pour son engagement contre les discriminations, elle publie « des livres qui bousculent les idées reçues. » La maison publie environ 25 titres par an pour l’essentiel à destination de la jeunesse.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Talents_Hauts</t>
+          <t>Éditions_Talents_Hauts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ligne éditoriale
-Fondée en 2005 par Laurence Faron et Mélanie Decourt (d) issues de l’édition et du militantisme, Talents Hauts s’est tout de suite positionnée comme une maison attentive aux stéréotypes notamment sexistes[4]. La qualité narrative et graphique a néanmoins toujours été le premier critère de choix des publications ainsi que la volonté, comme l’affirme le nom de la maison, de découvrir de nouveaux talents[5] (Clémentine Beauvais[6], Estelle Billon-Spagnol, Fred L., Séverine Vidal ont publié leurs premiers livres dans cette maison…).
-Étapes
-2005 : publication des premiers albums dont La princesse et le dragon et lancement de la première collection bilingue sans traduction, DUAL Books[7].
-2008 : lancement de la collection de romans juniors « Livres et Égaux », premier concours d’écriture « Lire     Égaux »[8]
-2010 : adhésion au Bureau international de l’Édition Française (BIEF)[9] et premiers titres traduits en langues étrangères.
-2012 : parution de Mauvaise connexion de Jo Witek, premier titre de la collection EGO[10], emménagement dans un immeuble de bureaux au centre de Vincennes (94), adhésion au Syndicat National de l’Édition (SNE)[11].
-2015 : restructuration et réorganisation[12]
-2016 : lancement de la collection « Zazou »[13] et de la collection « Les Héroïques »[14]
-2019 : lancement de la collection « Les Plumées »[15]
-2021 : lancement de la collection « Badaboum »[16]
+          <t>Ligne éditoriale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 2005 par Laurence Faron et Mélanie Decourt (d) issues de l’édition et du militantisme, Talents Hauts s’est tout de suite positionnée comme une maison attentive aux stéréotypes notamment sexistes. La qualité narrative et graphique a néanmoins toujours été le premier critère de choix des publications ainsi que la volonté, comme l’affirme le nom de la maison, de découvrir de nouveaux talents (Clémentine Beauvais, Estelle Billon-Spagnol, Fred L., Séverine Vidal ont publié leurs premiers livres dans cette maison…).
 </t>
         </is>
       </c>
@@ -535,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Talents_Hauts</t>
+          <t>Éditions_Talents_Hauts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +558,62 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étapes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2005 : publication des premiers albums dont La princesse et le dragon et lancement de la première collection bilingue sans traduction, DUAL Books.
+2008 : lancement de la collection de romans juniors « Livres et Égaux », premier concours d’écriture « Lire     Égaux »
+2010 : adhésion au Bureau international de l’Édition Française (BIEF) et premiers titres traduits en langues étrangères.
+2012 : parution de Mauvaise connexion de Jo Witek, premier titre de la collection EGO, emménagement dans un immeuble de bureaux au centre de Vincennes (94), adhésion au Syndicat National de l’Édition (SNE).
+2015 : restructuration et réorganisation
+2016 : lancement de la collection « Zazou » et de la collection « Les Héroïques »
+2019 : lancement de la collection « Les Plumées »
+2021 : lancement de la collection « Badaboum »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Catalogue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Collections
-"Badaboum. Par terre les clichés !", 0-3 ans
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>"Badaboum. Par terre les clichés !", 0-3 ans
 Albums 3-7 ans
  "Livres et égaux, des romans illustrés qui tordent le cou aux clichés", 6-10 ans
 "Zazou, la formule magique pour les 8-12 ans"
@@ -564,60 +621,130 @@
  "Les Héroïques, Les héros de l’ombre ont voix au chapitre", 14 ans +
 "Les Plumées", littérature générale
  "DUAL Books", romans bilingues
-"Oops &amp; Ohlala", albums bilingues, 3-5 ans.
-Titres connus
-La princesse et le dragon, Robert Munsch, Michael Martchenko
+"Oops &amp; Ohlala", albums bilingues, 3-5 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Catalogue</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Titres connus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La princesse et le dragon, Robert Munsch, Michael Martchenko
 romeo@juliette, Manu Causse
 La déclaration des droits des filles / des garçons / des mamans / des papas, Élisabeth Brami, Estelle Billion-Spagnol,
 Blanche-Neige et les 77 nains, Davide Cali, Raphaëlle Barbanègre
 Esther et Mandragore, Sophie Dieuaide, Marie-Pierre Oddoux
 Le Renard et la Couronne, Yann Fastier
-Le peuple du chemin, Marion Achard
-Prix et récompenses
-Prix Vendredi 2020, mention spéciale[17] : Sans Armure, Cathy Ytak
-Prix Tatoulu 2019[18] : D’un trait de fusain, Cathy Ytak
-Prix Danielle-Grondein 2019[19] : L’instant de la fracture, Antoine Dole
+Le peuple du chemin, Marion Achard</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Catalogue</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Vendredi 2020, mention spéciale : Sans Armure, Cathy Ytak
+Prix Tatoulu 2019 : D’un trait de fusain, Cathy Ytak
+Prix Danielle-Grondein 2019 : L’instant de la fracture, Antoine Dole
 Prix Millepages, 2018 : Le renard et la couronne, Yann Fastier
-Prix du roman historique junior de Blois 2018[20] : La révolution dans la peau, Serge Rubin
-Prix des Incorruptibles 2018[21] : Aimé, Claire Clément, ill. Benjamin Strickler
-Prix Michel-Tournier 2017[22] : Le mystère de la chambre noire, Serge Rubin
+Prix du roman historique junior de Blois 2018 : La révolution dans la peau, Serge Rubin
+Prix des Incorruptibles 2018 : Aimé, Claire Clément, ill. Benjamin Strickler
+Prix Michel-Tournier 2017 : Le mystère de la chambre noire, Serge Rubin
 Prix Unicef 2017 : La plume de Marie, Clémentine Beauvais
-Prix Saint-Exupéry 2017[23] : Quand le monstre naîtra, Nicolas Michel
-Prix Sésame[24] 2016 : Trop tôt, Jo Witek
+Prix Saint-Exupéry 2017 : Quand le monstre naîtra, Nicolas Michel
+Prix Sésame 2016 : Trop tôt, Jo Witek
 Prix Unicef 2021 : Mousse, Estelle Billon-Spagnol</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89ditions_Talents_Hauts</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éditions_Talents_Hauts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Talents_Hauts</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Quelques auteurs et autrices</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kateřina Bažantová (cs)[25]
-Estelle Billon-Spagnol (d)[26]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kateřina Bažantová (cs)
+Estelle Billon-Spagnol (d)
 Yann Fastier
-Raphaële Frier (d)[27]
+Raphaële Frier (d)
 Agnès Laroche
 Aylin Manço
 Nicolas Michel
